--- a/Docs/parts.xlsx
+++ b/Docs/parts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Slim</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t xml:space="preserve">Depending on the powering setup you might need to consider a balancer for the double battery setup and a step-down DCDC converter </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PLN 250</t>
   </si>
 </sst>
 </file>
@@ -608,7 +614,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -724,6 +730,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1785,7 +1803,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2011,8 +2029,20 @@
       <c r="E14" s="34"/>
       <c r="F14" s="31"/>
     </row>
+    <row r="15" ht="84.25" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="34"/>
+      <c r="F15" t="s" s="42">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -2020,6 +2050,7 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="https://pl.aliexpress.com/item/1005001709262331.html?spm=a2g0o.productlist.main.7.20a7SVeJSVeJMB&amp;algo_pvid=b2283613-3e38-4fc0-92a6-599ef0e265ba&amp;algo_exp_id=b2283613-3e38-4fc0-92a6-599ef0e265ba-3&amp;pdp_npi=4@dis!PLN!14.31!13.94!!!3.46!3.37!@2103896117063880824723221ed393!12000017242728824!sea!PL!0!AB&amp;curPageLogUid=GSNrjsSGEd9Y&amp;utparam-url=scene:search|query_from:"/>
